--- a/biology/Botanique/Haricot_de_Lima/Haricot_de_Lima.xlsx
+++ b/biology/Botanique/Haricot_de_Lima/Haricot_de_Lima.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le haricot de Lima (Phaseolus lunatus) est une espèce de plantes herbacées de la famille des Fabacées (ou Légumineuses), cultivée dans les pays chauds pour ses graines et consommées comme légume à l'instar du haricot commun (Phaseolus vulgaris).
 </t>
@@ -511,11 +523,13 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Nom scientifique valide : Phaseolus lunatus  L., 1753[1];[2].
-Noms vulgaires (vulgarisation scientifique) : haricot de Lima[3],[4],[5],[6],[7], haricot du Cap[3],[7], pois du Cap[3],[5],[6].
-Noms vernaculaires (langage courant), pouvant désigner éventuellement d'autres espèces : fève de Java[5], haricot de Madagascar[6],[7], haricot de Siéva[7], haricot du Tchad[7], fève créole[6], pois chouche ou pois doux (Antilles)[6], fève de Lima (Canada)[6], gros pois (Réunion)[8], pois savon[6], etc. (en anglais : Lima bean et/ou butter bean , espagnol : haba lima, allemand : Limabohne, malagasy : Kabaro , etc.).</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Nom scientifique valide : Phaseolus lunatus  L., 1753;.
+Noms vulgaires (vulgarisation scientifique) : haricot de Lima haricot du Cap pois du Cap.
+Noms vernaculaires (langage courant), pouvant désigner éventuellement d'autres espèces : fève de Java, haricot de Madagascar haricot de Siéva, haricot du Tchad, fève créole, pois chouche ou pois doux (Antilles), fève de Lima (Canada), gros pois (Réunion), pois savon, etc. (en anglais : Lima bean et/ou butter bean , espagnol : haba lima, allemand : Limabohne, malagasy : Kabaro , etc.).</t>
         </is>
       </c>
     </row>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le haricot de Lima est une plante herbacée grimpante, aux tiges glabres ou pubescentes pouvant atteindre 4,5 m de long et même beaucoup plus pour les plants vivaces. Le système racinaire bien développé peut atteindre deux mètres de profondeur, ce qui permet à la plante de bien résister à la sécheresse. Certaines racines renflées permettent à la plante d'être vivace.
 Les feuilles sont composées trifoliolées, avec un pétiole de 2 à 19 cm de long ; les folioles, de forme ovale-lancéolée ou presque losangée, ont de 3 à 15 cm de long.
@@ -591,12 +607,14 @@
           <t>Origine et distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est originaire d'Amérique tropicale et subtropicale : Mexique, Belize, Costa Rica, Guatemala, Honduras, Nicaragua, Panama, Venezuela, Brésil, Bolivie, Colombie, Équateur, Pérou.
 Il existe deux groupes issus de deux formes sauvages, un à gros grains et un à petits grains.
-Le groupe le plus anciennement domestiqué est celui à gros grains, 20 à 25 mm, qui était cultivé au Pérou il y a 8 000 ans. Il a été retrouvé lors de fouilles archéologiques dans la région d'Ancash et c'était une culture vivrière des peuples Nazca et Mochica. Il se nomme layo et pallar au Pérou, palato en Bolivie, torta en Colombie et en Équateur, et porotomanteca en Argentine[9].
-Le groupe a petits grains, 8 à 10 mm, n'a été domestiqué qu'il y a environ 1 200 ans. Il se nomme pois souche ou pois savon, ib chez les Mayas, patashete au Mexique, ixtapacal au Guatemala, chilipuca au Salvador, kedepa au Costa Rica, carauto en Colombie, et guaracaro au Venezuela[9].
+Le groupe le plus anciennement domestiqué est celui à gros grains, 20 à 25 mm, qui était cultivé au Pérou il y a 8 000 ans. Il a été retrouvé lors de fouilles archéologiques dans la région d'Ancash et c'était une culture vivrière des peuples Nazca et Mochica. Il se nomme layo et pallar au Pérou, palato en Bolivie, torta en Colombie et en Équateur, et porotomanteca en Argentine.
+Le groupe a petits grains, 8 à 10 mm, n'a été domestiqué qu'il y a environ 1 200 ans. Il se nomme pois souche ou pois savon, ib chez les Mayas, patashete au Mexique, ixtapacal au Guatemala, chilipuca au Salvador, kedepa au Costa Rica, carauto en Colombie, et guaracaro au Venezuela.
 Actuellement Phaseolus lunatus est largement cultivée dans les pays chauds.
 </t>
         </is>
@@ -626,7 +644,9 @@
           <t>Procédés de transformation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Phaseolus lunatus
 Le rendement en graines varie de 1 000 à 1 500 kg/ha en monoculture et de 200 à 600 kg/ha en culture mixte. Cependant, le rendement expérimental est beaucoup plus élevé et varie de 2 000 à 2 500 kg/ha pour le type buissonnant et de 3 000 à 4 000 kg/ha pour le type grimpant.
@@ -659,10 +679,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Cette espèce a été décrite pour la première fois en 1753 par le naturaliste suédois Carl von Linné (1707-1778).
-Synonymes scientifiques[10],[11] :
+Synonymes scientifiques, :
 Dolichos tonkinensis Bui-Quang-Chieu
 Phaseolus bipunctatus Jacq.
 Phaseolus ilocanus Blanco
@@ -677,15 +699,49 @@
 Phaseolus vexillatus "sensu Blanco, non L."
 Phaseolus viridis Piper
 Phaseolus vulgaris "sensu Blanco, non L."
-Phaseolus xuaresii Zuccagni
-Liste des variétés
-Selon Catalogue of Life                                   (6 novembre 2014)[12] :
+Phaseolus xuaresii Zuccagni</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Haricot_de_Lima</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haricot_de_Lima</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (6 novembre 2014) :
 variété Phaseolus lunatus var. lunatus ;
 variété Phaseolus lunatus var. silvester.
-Selon The Plant List            (6 novembre 2014)[2] :
+Selon The Plant List            (6 novembre 2014) :
 variété Phaseolus lunatus var. limenanus (L.H. Bailey) Burkart ;
 variété Phaseolus lunatus var. solanoides (Eselt.) Burkart.
-Selon Tropicos                                           (6 novembre 2014)[13] (attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (6 novembre 2014) (attention liste brute contenant possiblement des synonymes) :
 variété Phaseolus lunatus var. limenanus (L.H. Bailey) Burkart ;
 variété Phaseolus lunatus var. lunatus ;
 variété Phaseolus lunatus var. lunonanus L.H. Bailey ;
@@ -696,39 +752,6 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Haricot_de_Lima</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Haricot_de_Lima</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Valeur nutritionnelle</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Toxicité
-Les graines de cette plante contiennent plusieurs facteurs antinutritionnels, dont des lectines et des inhibiteurs de protéases[14], ainsi que de la phaséolunatine ou linamarine. Il s'agit d'un glucoside cyanogénétique, le 2-(alpha-D-glucopyranosyloxy)-2-méthylpropanenitrile[15], qui libère de l'acide cyanhydrique sous l'action d'enzymes. Cette substance est détruite par la cuisson dans certaines conditions : trempage et cuisson suffisante dans un grand volume d'eau, l'eau utilisée à chacune des deux étapes doit être jetée[16].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
@@ -750,16 +773,88 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Valeur nutritionnelle</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Haricot_de_Lima</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haricot_de_Lima</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Valeur nutritionnelle</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Toxicité</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les graines de cette plante contiennent plusieurs facteurs antinutritionnels, dont des lectines et des inhibiteurs de protéases, ainsi que de la phaséolunatine ou linamarine. Il s'agit d'un glucoside cyanogénétique, le 2-(alpha-D-glucopyranosyloxy)-2-méthylpropanenitrile, qui libère de l'acide cyanhydrique sous l'action d'enzymes. Cette substance est détruite par la cuisson dans certaines conditions : trempage et cuisson suffisante dans un grand volume d'eau, l'eau utilisée à chacune des deux étapes doit être jetée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Haricot_de_Lima</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haricot_de_Lima</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes les variétés, différentes par la couleur des grains peuvent être consommées en grains frais à écosser. La gousse étant coriace on l'écosse généralement sèche. C'est un gros haricot blanc, vert ou taché de rouge-bordeaux qui se cuit rapidement après trempage d'une nuit. Sa texture est onctueuse, crémeuse d'où son appellation de pois savon et une saveur délicate mais la peau est épaisse. Seuls ceux à grains blancs sont consommés sous forme de haricot sec, car les grains colorés peuvent renfermer un glucoside cyanhydrique toxique. Il serait nécessaire de les bouillir, les peler puis les faire cuire.
 Phaseolus lunatus se cuisine comme le haricot grain commun.
 Il entre comme ingrédient principal dans de nombreuses recettes des Andes.
 Sous le nom de garrofó, il est considéré comme essentiel dans l'élaboration de la paella valencienne.
-Dans la cuisine traditionnelle réunionnaise et mauricienne, le pois du cap est utilisé comme accompagnement dans le cari. Au même titre que les lentilles ou d'autres variétés de haricots, il constitue ce que l'on appelle le "grain" et il est servi avec du riz, une viande ou un poisson en sauce  et le "rougail", une préparation à base de piment. Le pois du cap est aussi l'ingrédient de base du "bonbon piment", une autre spécialité des deux îles[8],[17].
+Dans la cuisine traditionnelle réunionnaise et mauricienne, le pois du cap est utilisé comme accompagnement dans le cari. Au même titre que les lentilles ou d'autres variétés de haricots, il constitue ce que l'on appelle le "grain" et il est servi avec du riz, une viande ou un poisson en sauce  et le "rougail", une préparation à base de piment. Le pois du cap est aussi l'ingrédient de base du "bonbon piment", une autre spécialité des deux îles,.
 </t>
         </is>
       </c>
